--- a/SampleCodes/Library/Pandas/test.xlsx
+++ b/SampleCodes/Library/Pandas/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s0199669/github/PythonSampleCodes/SampleCodes/Library/Pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808825BE-844F-A746-83A4-72563AA482EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8232A543-84AB-C24A-9BC5-D8AA707BD273}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-85500" yWindow="1200" windowWidth="29240" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-89600" yWindow="-520" windowWidth="33200" windowHeight="22740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <webPublishing codePage="1250"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -620,8 +621,8 @@
   <sheetPr codeName="Standard Curve 1_01"/>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="243" zoomScaleNormal="243" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="243" zoomScaleNormal="243" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
